--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70665E6-D312-41D1-99D8-C01E74C4FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BB526-E584-47FB-8948-AFAF4C184410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
   <si>
     <t>As a...</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>log out from a specific device or all devices</t>
+  </si>
+  <si>
+    <t>Follow other users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can interact with them </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen to the stories </t>
+  </si>
+  <si>
+    <t>I can do it while like i'm at the gym or something</t>
   </si>
 </sst>
 </file>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1155,7 +1167,6 @@
       <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1176,7 +1187,7 @@
       <c r="E20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1362,6 +1373,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1379,6 +1393,43 @@
       </c>
       <c r="G30" s="12" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BB526-E584-47FB-8948-AFAF4C184410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D65207-D28C-4332-85B6-73C8805A121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>As a...</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>I can do it while like i'm at the gym or something</t>
+  </si>
+  <si>
+    <t>I want a Persistent Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My account is secured </t>
   </si>
 </sst>
 </file>
@@ -722,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1396,6 +1402,9 @@
       </c>
     </row>
     <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1416,6 +1425,9 @@
       </c>
     </row>
     <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1429,6 +1441,26 @@
         <v>46</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D65207-D28C-4332-85B6-73C8805A121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDBEF68-736A-47E1-8972-3B03A1B057A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
   <si>
     <t>As a...</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t xml:space="preserve">My account is secured </t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read stories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can read stories without signing up </t>
+  </si>
+  <si>
+    <t>browse in multi-languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can understand everything </t>
   </si>
 </sst>
 </file>
@@ -728,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1464,6 +1479,43 @@
         <v>28</v>
       </c>
     </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDBEF68-736A-47E1-8972-3B03A1B057A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038924DE-5A2E-4A9F-A6A4-67482DBC4255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
   <si>
     <t>As a...</t>
   </si>
@@ -147,12 +147,6 @@
     <t>I can easily see if i have any new messages.</t>
   </si>
   <si>
-    <t>Translate button</t>
-  </si>
-  <si>
-    <t>I can change the website language.</t>
-  </si>
-  <si>
     <t xml:space="preserve">User </t>
   </si>
   <si>
@@ -213,12 +207,6 @@
     <t>I don’t share anymore of my personal information</t>
   </si>
   <si>
-    <t xml:space="preserve">I can come back anytime and find it easily </t>
-  </si>
-  <si>
-    <t>Create stories list</t>
-  </si>
-  <si>
     <t>Share my stories list</t>
   </si>
   <si>
@@ -237,15 +225,6 @@
     <t xml:space="preserve">As a user I want to be able to edit my story after I publish it </t>
   </si>
   <si>
-    <t xml:space="preserve">Writer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">track my stories spread in the community </t>
-  </si>
-  <si>
-    <t>I can get some feedback on stories and the way I write</t>
-  </si>
-  <si>
     <t xml:space="preserve">In progress </t>
   </si>
   <si>
@@ -289,6 +268,45 @@
   </si>
   <si>
     <t xml:space="preserve">I can understand everything </t>
+  </si>
+  <si>
+    <t>I can remember it later</t>
+  </si>
+  <si>
+    <t>I can come back anytime and edit it</t>
+  </si>
+  <si>
+    <t>مرشح للسبرنت الرابع</t>
+  </si>
+  <si>
+    <t>have a list of my works</t>
+  </si>
+  <si>
+    <t>Have a reading list</t>
+  </si>
+  <si>
+    <t>Maintenance page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know if im doing something wrong or the servers are down </t>
+  </si>
+  <si>
+    <t>Search not found page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I know that there is no result for my search </t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -743,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E41" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -758,11 +776,12 @@
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -797,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -820,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -843,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -866,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -889,7 +908,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -912,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -929,13 +948,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -958,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -981,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1004,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1021,13 +1040,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -1040,23 +1059,23 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>70</v>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1067,19 +1086,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1090,19 +1109,17 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>70</v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1113,107 +1130,114 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="7">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1221,39 +1245,44 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1261,19 +1290,19 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1281,19 +1310,19 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1301,19 +1330,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1321,19 +1350,22 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1341,19 +1373,19 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1361,39 +1393,39 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1401,22 +1433,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="2">
-        <v>3</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1424,22 +1453,22 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1453,13 +1482,16 @@
         <v>77</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1467,39 +1499,49 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1510,10 +1552,33 @@
         <v>84</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038924DE-5A2E-4A9F-A6A4-67482DBC4255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1336444-3CD1-4E46-8798-FAC07AA4BDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>As a...</t>
   </si>
@@ -141,12 +141,6 @@
     <t>I can get the stories that I'm interested in and I want to read.</t>
   </si>
   <si>
-    <t>Inbox messages button</t>
-  </si>
-  <si>
-    <t>I can easily see if i have any new messages.</t>
-  </si>
-  <si>
     <t xml:space="preserve">User </t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>Everyone that has the same mindset can see it or read it with me</t>
   </si>
   <si>
-    <t>Go the help page</t>
-  </si>
-  <si>
     <t xml:space="preserve">If I have any problem I can contact the help center and they will help me </t>
   </si>
   <si>
@@ -276,9 +267,6 @@
     <t>I can come back anytime and edit it</t>
   </si>
   <si>
-    <t>مرشح للسبرنت الرابع</t>
-  </si>
-  <si>
     <t>have a list of my works</t>
   </si>
   <si>
@@ -297,16 +285,52 @@
     <t xml:space="preserve">so that I know that there is no result for my search </t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t xml:space="preserve">Dark theme </t>
+  </si>
+  <si>
+    <t>help center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can feel more comfy </t>
+  </si>
+  <si>
+    <t>04/03/2024 - 10/03/2024</t>
+  </si>
+  <si>
+    <t>10/03/2024 - 24/03/2024</t>
+  </si>
+  <si>
+    <t>27/03/2024 - 04/04/2024</t>
+  </si>
+  <si>
+    <t>04/04/2024 - 20/04/2024</t>
+  </si>
+  <si>
+    <t>Date DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>امجد</t>
+  </si>
+  <si>
+    <t>عمر</t>
+  </si>
+  <si>
+    <t>محمد علي</t>
+  </si>
+  <si>
+    <t>عرين</t>
+  </si>
+  <si>
+    <t>لمى</t>
+  </si>
+  <si>
+    <t>عبود</t>
+  </si>
+  <si>
+    <t>احمد</t>
   </si>
 </sst>
 </file>
@@ -335,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,12 +388,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8ED973"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -421,11 +439,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E41" sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -776,12 +794,12 @@
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -801,8 +819,11 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -816,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -824,8 +845,11 @@
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -839,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -847,8 +871,11 @@
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -862,7 +889,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -870,8 +897,11 @@
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -885,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -893,8 +923,11 @@
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -908,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -916,8 +949,11 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -931,7 +967,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -939,8 +975,11 @@
       <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -948,13 +987,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -962,8 +1001,11 @@
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -977,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -985,8 +1027,11 @@
       <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1000,7 +1045,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1008,8 +1053,11 @@
       <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1023,7 +1071,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1031,8 +1079,11 @@
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1040,13 +1091,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -1054,22 +1105,25 @@
       <c r="G12" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -1077,8 +1131,11 @@
       <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1092,37 +1149,45 @@
         <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1130,22 +1195,25 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1">
+        <v>40</v>
+      </c>
+      <c r="F16" s="9">
         <v>3</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1153,45 +1221,51 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="7">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9">
         <v>3</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1199,22 +1273,25 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="9">
         <v>3</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1222,22 +1299,25 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="9">
         <v>3</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="G20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1245,64 +1325,80 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1310,19 +1406,28 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1330,19 +1435,28 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1350,22 +1464,28 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1373,19 +1493,28 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1393,19 +1522,28 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1413,19 +1551,28 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1433,19 +1580,28 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1453,10 +1609,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>42</v>
@@ -1464,11 +1620,8 @@
       <c r="G31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1476,22 +1629,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1499,23 +1649,19 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="9"/>
       <c r="G33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1523,22 +1669,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1546,10 +1689,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>42</v>
@@ -1557,28 +1700,32 @@
       <c r="G35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H36" t="s">
-        <v>80</v>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1336444-3CD1-4E46-8798-FAC07AA4BDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF9618-DD63-442C-98C6-AEA8E419C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
   <si>
     <t>As a...</t>
   </si>
@@ -327,10 +327,19 @@
     <t>لمى</t>
   </si>
   <si>
+    <t>احمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبود </t>
+  </si>
+  <si>
+    <t>20/04/2024-20/5/2024</t>
+  </si>
+  <si>
+    <t>امجد وعمر</t>
+  </si>
+  <si>
     <t>عبود</t>
-  </si>
-  <si>
-    <t>احمد</t>
   </si>
 </sst>
 </file>
@@ -781,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1180,8 +1189,8 @@
       <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>60</v>
+      <c r="G15" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>89</v>
@@ -1206,8 +1215,8 @@
       <c r="F16" s="9">
         <v>3</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>60</v>
+      <c r="G16" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>89</v>
@@ -1620,6 +1629,9 @@
       <c r="G31" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="I31" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
@@ -1640,8 +1652,11 @@
       <c r="G32" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1660,8 +1675,11 @@
       <c r="G33" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1680,8 +1698,11 @@
       <c r="G34" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1700,8 +1721,11 @@
       <c r="G35" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1717,12 +1741,20 @@
       <c r="E36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>85</v>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF9618-DD63-442C-98C6-AEA8E419C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C835978A-4369-47EE-81CE-0DB33C87B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1455,8 +1455,8 @@
       <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>60</v>
+      <c r="G25" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>90</v>
@@ -1484,8 +1484,8 @@
       <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>60</v>
+      <c r="G26" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>90</v>
@@ -1744,8 +1744,8 @@
       <c r="F36" s="1">
         <v>5</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>60</v>
+      <c r="G36" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>99</v>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C835978A-4369-47EE-81CE-0DB33C87B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C374D30-79EE-4EEE-B67F-81629F41A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1626,6 +1626,9 @@
       <c r="E31" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
       <c r="G31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1649,6 +1652,9 @@
       <c r="E32" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
       <c r="G32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1672,6 +1678,9 @@
       <c r="E33" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
       <c r="G33" s="8" t="s">
         <v>28</v>
       </c>
@@ -1695,6 +1704,9 @@
       <c r="E34" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
       <c r="G34" s="8" t="s">
         <v>28</v>
       </c>
@@ -1717,6 +1729,9 @@
       </c>
       <c r="E35" s="7" t="s">
         <v>42</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>28</v>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\Desktop\CAP\Team Project 2\project\work\WEB2-project\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A1F9E-5F81-457C-9C09-A7EF66B2DB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DACB67-ED66-402C-9086-55E217D5F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="94">
   <si>
     <t>As a...</t>
   </si>
@@ -216,9 +207,6 @@
     <t xml:space="preserve">As a user I want to be able to edit my story after I publish it </t>
   </si>
   <si>
-    <t xml:space="preserve">In progress </t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -306,25 +294,10 @@
     <t>Date DD/MM/YYYY</t>
   </si>
   <si>
-    <t>امجد</t>
-  </si>
-  <si>
     <t>عمر</t>
   </si>
   <si>
-    <t>محمد علي</t>
-  </si>
-  <si>
-    <t>عرين</t>
-  </si>
-  <si>
-    <t>لمى</t>
-  </si>
-  <si>
     <t>احمد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عبود </t>
   </si>
   <si>
     <t>20/04/2024-20/5/2024</t>
@@ -340,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,12 +366,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1A983"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -412,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,9 +407,6 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -784,25 +748,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="97.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
+    <col min="4" max="4" width="97.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -823,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -848,11 +812,11 @@
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -874,11 +838,11 @@
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -900,11 +864,11 @@
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -926,11 +890,11 @@
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -952,11 +916,11 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -978,11 +942,11 @@
       <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1004,11 +968,11 @@
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1031,10 +995,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1057,10 +1021,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1083,10 +1047,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1109,21 +1073,21 @@
         <v>9</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>40</v>
@@ -1135,10 +1099,10 @@
         <v>9</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1161,10 +1125,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1187,10 +1151,10 @@
         <v>9</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1213,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1224,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -1239,10 +1203,10 @@
         <v>9</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1265,10 +1229,10 @@
         <v>9</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1276,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1291,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1302,10 +1266,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>40</v>
@@ -1317,10 +1281,10 @@
         <v>9</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1343,10 +1307,10 @@
         <v>9</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1369,10 +1333,10 @@
         <v>9</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1391,17 +1355,14 @@
       <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>60</v>
+      <c r="G23" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1420,17 +1381,14 @@
       <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>60</v>
+      <c r="G24" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1438,10 +1396,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
         <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>40</v>
@@ -1453,13 +1411,10 @@
         <v>9</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1467,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>40</v>
@@ -1482,13 +1437,10 @@
         <v>9</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1496,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -1507,17 +1459,14 @@
       <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>60</v>
+      <c r="G27" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1525,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>40</v>
@@ -1536,17 +1485,14 @@
       <c r="F28" s="1">
         <v>4</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>60</v>
+      <c r="G28" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1554,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>40</v>
@@ -1565,17 +1511,14 @@
       <c r="F29" s="1">
         <v>4</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>60</v>
+      <c r="G29" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1583,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>40</v>
@@ -1594,17 +1537,14 @@
       <c r="F30" s="1">
         <v>4</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>60</v>
+      <c r="G30" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1612,10 +1552,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>42</v>
@@ -1627,10 +1567,10 @@
         <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1653,10 +1593,10 @@
         <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1679,10 +1619,10 @@
         <v>28</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1701,14 +1641,11 @@
       <c r="F34" s="1">
         <v>5</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="G34" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1731,13 +1668,13 @@
         <v>9</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1745,10 +1682,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A1F9E-5F81-457C-9C09-A7EF66B2DB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FDB9C-481D-4B72-9B48-DE0CAA2ACD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <si>
     <t>As a...</t>
   </si>
@@ -120,9 +120,6 @@
     <t>I can edit my about, display name, and image.</t>
   </si>
   <si>
-    <t>to be started</t>
-  </si>
-  <si>
     <t>Write collaboratively</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>help center</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">I can feel more comfy </t>
   </si>
   <si>
@@ -306,34 +300,25 @@
     <t>Date DD/MM/YYYY</t>
   </si>
   <si>
-    <t>امجد</t>
-  </si>
-  <si>
-    <t>عمر</t>
-  </si>
-  <si>
-    <t>محمد علي</t>
-  </si>
-  <si>
-    <t>عرين</t>
-  </si>
-  <si>
-    <t>لمى</t>
-  </si>
-  <si>
-    <t>احمد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عبود </t>
-  </si>
-  <si>
     <t>20/04/2024-20/5/2024</t>
   </si>
   <si>
-    <t>امجد وعمر</t>
-  </si>
-  <si>
-    <t>عبود</t>
+    <t>make my own profile picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can use it  instead of a picture of me </t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search for a user profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reach to other users accounts easly </t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
 </sst>
 </file>
@@ -362,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,16 +412,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -782,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -802,7 +778,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -823,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -840,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -848,8 +824,8 @@
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>85</v>
+      <c r="H2" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -866,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -874,8 +850,8 @@
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>85</v>
+      <c r="H3" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -892,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -900,8 +876,8 @@
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>85</v>
+      <c r="H4" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -918,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -926,8 +902,8 @@
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>85</v>
+      <c r="H5" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -944,7 +920,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -952,8 +928,8 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>85</v>
+      <c r="H6" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -970,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -978,8 +954,8 @@
       <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>85</v>
+      <c r="H7" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -990,13 +966,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1004,8 +980,8 @@
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>85</v>
+      <c r="H8" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1022,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -1030,8 +1006,8 @@
       <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>86</v>
+      <c r="H9" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1048,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1056,8 +1032,8 @@
       <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>86</v>
+      <c r="H10" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1074,7 +1050,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1082,60 +1058,60 @@
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>86</v>
+      <c r="H11" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>86</v>
+      <c r="G12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>86</v>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1152,42 +1128,42 @@
         <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>87</v>
+      <c r="G14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>87</v>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1198,25 +1174,25 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="9">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1224,25 +1200,25 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9">
+        <v>41</v>
+      </c>
+      <c r="F17" s="8">
         <v>3</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1250,77 +1226,77 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="9">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8">
         <v>3</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="9">
+        <v>39</v>
+      </c>
+      <c r="F19" s="8">
         <v>3</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="G19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="9">
+        <v>39</v>
+      </c>
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1328,25 +1304,25 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1354,54 +1330,51 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1409,28 +1382,25 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1438,28 +1408,25 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1467,28 +1434,25 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="G26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1496,28 +1460,25 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1525,28 +1486,25 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="G28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1554,28 +1512,25 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="G29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1583,106 +1538,103 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="G30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="1">
+        <v>41</v>
+      </c>
+      <c r="F31" s="7">
         <v>5</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="G31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>50</v>
+      <c r="C32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="1">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7">
         <v>5</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="G32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
+      <c r="C33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="1">
+        <v>39</v>
+      </c>
+      <c r="F33" s="7">
         <v>5</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="G33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1690,10 +1642,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>41</v>
@@ -1701,14 +1653,14 @@
       <c r="F34" s="1">
         <v>5</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="G34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1716,10 +1668,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -1728,27 +1680,57 @@
         <v>5</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="C36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FDB9C-481D-4B72-9B48-DE0CAA2ACD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3111B99F-E677-499C-9874-9465BD844194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>As a...</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t xml:space="preserve">As a user I want to be able to edit my story after I publish it </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In progress </t>
   </si>
   <si>
     <t>ID</t>
@@ -347,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,12 +369,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1A983"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -391,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,9 +407,6 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -760,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -778,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -799,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -824,8 +812,8 @@
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>83</v>
+      <c r="H2" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -850,8 +838,8 @@
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>83</v>
+      <c r="H3" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -876,8 +864,8 @@
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>83</v>
+      <c r="H4" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -902,8 +890,8 @@
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>83</v>
+      <c r="H5" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -928,8 +916,8 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>83</v>
+      <c r="H6" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -954,8 +942,8 @@
       <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>83</v>
+      <c r="H7" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -980,8 +968,8 @@
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>83</v>
+      <c r="H8" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1007,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1033,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1059,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1085,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1093,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>39</v>
@@ -1111,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1137,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1163,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1189,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1200,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -1215,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1241,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1252,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -1267,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1278,10 +1266,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>39</v>
@@ -1293,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1319,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1345,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1371,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1397,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1408,10 +1396,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>39</v>
@@ -1423,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1434,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>39</v>
@@ -1449,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1460,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -1475,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1486,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>39</v>
@@ -1501,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1512,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
         <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>39</v>
@@ -1527,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1538,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
         <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>39</v>
@@ -1553,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1575,11 +1563,11 @@
       <c r="F31" s="7">
         <v>5</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>59</v>
+      <c r="G31" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1605,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1631,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1642,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>41</v>
@@ -1653,11 +1641,11 @@
       <c r="F34" s="1">
         <v>5</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>59</v>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1679,11 +1667,11 @@
       <c r="F35" s="1">
         <v>5</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>59</v>
+      <c r="G35" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1694,43 +1682,43 @@
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
         <v>89</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>59</v>
+      <c r="G36" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
         <v>92</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>59</v>
+      <c r="G37" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3111B99F-E677-499C-9874-9465BD844194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B12563-2C98-4CF4-B510-999571923DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="109">
   <si>
     <t>As a...</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Edit My profile info.</t>
   </si>
   <si>
-    <t>I can edit my about, display name, and image.</t>
-  </si>
-  <si>
     <t>Write collaboratively</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>20/04/2024-20/5/2024</t>
   </si>
   <si>
-    <t>make my own profile picture</t>
-  </si>
-  <si>
     <t xml:space="preserve">I can use it  instead of a picture of me </t>
   </si>
   <si>
@@ -316,6 +310,57 @@
   </si>
   <si>
     <t>p2</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Amjad</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Abood</t>
+  </si>
+  <si>
+    <t>Mohammmd Ali</t>
+  </si>
+  <si>
+    <t>Amjad/Abood</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Areen/Lama</t>
+  </si>
+  <si>
+    <t>I can edit my about.</t>
+  </si>
+  <si>
+    <t>Omar/Ahmad</t>
+  </si>
+  <si>
+    <t>Areen</t>
+  </si>
+  <si>
+    <t>Omar did the foundation</t>
+  </si>
+  <si>
+    <t>make my avatar</t>
+  </si>
+  <si>
+    <t>Lama/Areen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite users to write with me </t>
+  </si>
+  <si>
+    <t>I can send them an invitation so they can join me</t>
   </si>
 </sst>
 </file>
@@ -746,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -762,11 +807,12 @@
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -787,10 +833,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -804,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -813,10 +862,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -830,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -839,10 +891,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -856,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -865,10 +920,13 @@
         <v>9</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -882,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -891,10 +949,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -908,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -917,10 +978,13 @@
         <v>9</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -934,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -943,10 +1007,13 @@
         <v>9</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -954,13 +1021,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -969,10 +1036,13 @@
         <v>9</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -986,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -995,10 +1065,13 @@
         <v>9</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1012,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1021,10 +1094,13 @@
         <v>9</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1038,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1047,10 +1123,13 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1058,13 +1137,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -1073,24 +1152,27 @@
         <v>9</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -1099,10 +1181,13 @@
         <v>9</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1113,10 +1198,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -1125,24 +1210,27 @@
         <v>9</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -1151,10 +1239,13 @@
         <v>9</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1162,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
@@ -1177,10 +1268,13 @@
         <v>9</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1188,13 +1282,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -1203,10 +1297,13 @@
         <v>9</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1214,13 +1311,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
@@ -1229,10 +1326,13 @@
         <v>9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1240,13 +1340,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="8">
         <v>3</v>
@@ -1255,10 +1355,13 @@
         <v>9</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1266,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
@@ -1281,10 +1384,13 @@
         <v>9</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1292,13 +1398,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -1307,10 +1413,13 @@
         <v>9</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1318,13 +1427,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
@@ -1333,24 +1442,27 @@
         <v>9</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
@@ -1359,10 +1471,13 @@
         <v>9</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1370,13 +1485,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
@@ -1385,10 +1500,13 @@
         <v>9</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1396,13 +1514,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
@@ -1411,10 +1529,13 @@
         <v>9</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1422,13 +1543,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -1437,10 +1558,13 @@
         <v>9</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1448,13 +1572,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
@@ -1463,10 +1587,13 @@
         <v>9</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1474,13 +1601,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
@@ -1489,10 +1616,13 @@
         <v>9</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1500,13 +1630,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
@@ -1515,10 +1645,13 @@
         <v>9</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1526,13 +1659,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
@@ -1541,10 +1674,13 @@
         <v>9</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1552,13 +1688,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
@@ -1567,10 +1703,13 @@
         <v>9</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1578,13 +1717,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="7">
         <v>5</v>
@@ -1593,10 +1732,13 @@
         <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1604,13 +1746,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7">
         <v>5</v>
@@ -1619,10 +1761,13 @@
         <v>9</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1630,13 +1775,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -1645,10 +1790,13 @@
         <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1656,13 +1804,13 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
@@ -1671,10 +1819,13 @@
         <v>9</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1682,13 +1833,13 @@
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
@@ -1697,19 +1848,25 @@
         <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -1718,7 +1875,36 @@
         <v>9</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="I37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="7">
+        <v>5</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\Desktop\CAP\Team Project 2\project\work\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B12563-2C98-4CF4-B510-999571923DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F4CEA4-563D-4DBC-B7A5-C84419CDE59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -126,9 +117,6 @@
     <t>Edit my user settings</t>
   </si>
   <si>
-    <t>I can change my profile from public to private and via versa, edit my personal information and my profile information.</t>
-  </si>
-  <si>
     <t>Search for a story</t>
   </si>
   <si>
@@ -361,13 +349,16 @@
   </si>
   <si>
     <t>I can send them an invitation so they can join me</t>
+  </si>
+  <si>
+    <t>I can edit my personal information and my profile information.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,26 +784,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="97.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
+    <col min="4" max="4" width="97.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -833,13 +824,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -853,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -862,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -882,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -891,13 +882,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -911,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -920,13 +911,13 @@
         <v>9</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -940,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -949,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -969,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -978,13 +969,13 @@
         <v>9</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -998,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1007,13 +998,13 @@
         <v>9</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1021,13 +1012,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1036,13 +1027,13 @@
         <v>9</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1056,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -1065,13 +1056,13 @@
         <v>9</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1085,7 +1076,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1094,13 +1085,13 @@
         <v>9</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1114,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1123,13 +1114,13 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1137,13 +1128,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -1152,27 +1143,27 @@
         <v>9</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -1181,13 +1172,13 @@
         <v>9</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1198,10 +1189,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -1210,27 +1201,27 @@
         <v>9</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -1239,13 +1230,13 @@
         <v>9</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1253,13 +1244,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
@@ -1268,13 +1259,13 @@
         <v>9</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1282,13 +1273,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -1297,13 +1288,13 @@
         <v>9</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1311,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
@@ -1326,13 +1317,13 @@
         <v>9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1340,13 +1331,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="8">
         <v>3</v>
@@ -1355,13 +1346,13 @@
         <v>9</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1369,13 +1360,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
@@ -1384,13 +1375,13 @@
         <v>9</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1401,10 +1392,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -1413,13 +1404,13 @@
         <v>9</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1427,13 +1418,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
@@ -1442,27 +1433,27 @@
         <v>9</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
@@ -1471,13 +1462,13 @@
         <v>9</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1485,13 +1476,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
@@ -1500,13 +1491,13 @@
         <v>9</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1514,13 +1505,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
@@ -1529,13 +1520,13 @@
         <v>9</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1543,13 +1534,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -1558,13 +1549,13 @@
         <v>9</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1572,13 +1563,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
@@ -1587,13 +1578,13 @@
         <v>9</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1601,13 +1592,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
@@ -1616,13 +1607,13 @@
         <v>9</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1630,13 +1621,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
@@ -1645,13 +1636,13 @@
         <v>9</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1659,13 +1650,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
         <v>76</v>
       </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
@@ -1674,13 +1665,13 @@
         <v>9</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1688,13 +1679,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
@@ -1703,13 +1694,13 @@
         <v>9</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1717,13 +1708,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="7">
         <v>5</v>
@@ -1732,13 +1723,13 @@
         <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1752,7 +1743,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" s="7">
         <v>5</v>
@@ -1761,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1775,13 +1766,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -1790,13 +1781,13 @@
         <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1804,13 +1795,13 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
@@ -1819,13 +1810,13 @@
         <v>9</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1833,13 +1824,13 @@
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
@@ -1848,25 +1839,25 @@
         <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
         <v>89</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -1875,24 +1866,24 @@
         <v>9</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="7">
         <v>5</v>
@@ -1901,10 +1892,10 @@
         <v>9</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Scriptoria project information/scriptoria backlog.xlsx
+++ b/Scriptoria project information/scriptoria backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS-20230610T091643Z-001\VS\university\WEB2\Scriptoria\Scriptoria project information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B12563-2C98-4CF4-B510-999571923DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEECD1CC-C456-4A66-9C4C-CE9457026D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="123">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>As a...</t>
   </si>
@@ -54,6 +59,12 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Date DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
@@ -63,18 +74,33 @@
     <t>I can write my stories and interact with other users.</t>
   </si>
   <si>
+    <t>P1</t>
+  </si>
+  <si>
     <t>Done</t>
   </si>
   <si>
+    <t>04/03/2024 - 10/03/2024</t>
+  </si>
+  <si>
+    <t>Amjad</t>
+  </si>
+  <si>
     <t>Sing In</t>
   </si>
   <si>
+    <t>Omar</t>
+  </si>
+  <si>
     <t>Write a story</t>
   </si>
   <si>
     <t>I can save and publish it later.</t>
   </si>
   <si>
+    <t>Abood</t>
+  </si>
+  <si>
     <t>Edit my story text style</t>
   </si>
   <si>
@@ -87,18 +113,39 @@
     <t>I can get back to it and continue from where I stopped.</t>
   </si>
   <si>
+    <t>Mohammmd Ali</t>
+  </si>
+  <si>
     <t>Publish my story</t>
   </si>
   <si>
     <t>I can make it visible for everyone and comment, rate, and give me their feedback.</t>
   </si>
   <si>
+    <t>Amjad/Abood</t>
+  </si>
+  <si>
+    <t>top stories</t>
+  </si>
+  <si>
+    <t>I can see the stories that have the highest rate.</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
     <t>Visit users profile</t>
   </si>
   <si>
     <t>I can read their stories, communicate with them, and interact with them.</t>
   </si>
   <si>
+    <t>10/03/2024 - 24/03/2024</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
     <t>Reset my password</t>
   </si>
   <si>
@@ -114,67 +161,175 @@
     <t>I can make sure that email is actually for that user.</t>
   </si>
   <si>
+    <t>404 page</t>
+  </si>
+  <si>
+    <t>If the user messed up the URL will be routed to this page</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read stories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can read stories without signing up </t>
+  </si>
+  <si>
+    <t>Areen/Lama</t>
+  </si>
+  <si>
     <t>Edit My profile info.</t>
   </si>
   <si>
+    <t>I can edit my about.</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>27/03/2024 - 04/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t>Story read page</t>
+  </si>
+  <si>
+    <t>I can read the stories and interact with it(rate it, leave a comment, or share it)</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Comment and rate</t>
+  </si>
+  <si>
+    <t>I can give my opinion about the story and have discussions with other users</t>
+  </si>
+  <si>
+    <t>help center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I have any problem I can contact the help center and they will help me </t>
+  </si>
+  <si>
+    <t>Block/Mute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If any user announced me I can stop them </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logout </t>
+  </si>
+  <si>
+    <t>log out from a specific device or all devices</t>
+  </si>
+  <si>
+    <t>Follow other users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can interact with them </t>
+  </si>
+  <si>
+    <t>Edit my user settings</t>
+  </si>
+  <si>
+    <t>I can change my profile from public to private and via versa, edit my personal information and my profile information.</t>
+  </si>
+  <si>
+    <t>Search for a story</t>
+  </si>
+  <si>
+    <t>I can get the stories that I'm interested in and I want to read.</t>
+  </si>
+  <si>
+    <t>Omar/Ahmad</t>
+  </si>
+  <si>
+    <t>sorted stoeis</t>
+  </si>
+  <si>
+    <t>I can explore the stories via the genres, views, ratings, etc.</t>
+  </si>
+  <si>
+    <t>04/04/2024 - 20/04/2024</t>
+  </si>
+  <si>
+    <t>Areen</t>
+  </si>
+  <si>
+    <t>Delete or disable my account</t>
+  </si>
+  <si>
+    <t>I don’t share anymore of my personal information</t>
+  </si>
+  <si>
+    <t>I want a Persistent Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My account is secured </t>
+  </si>
+  <si>
+    <t>browse in multi-languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can understand everything </t>
+  </si>
+  <si>
+    <t>Omar did the foundation</t>
+  </si>
+  <si>
+    <t>Have a reading list</t>
+  </si>
+  <si>
+    <t>I can remember it later</t>
+  </si>
+  <si>
+    <t>have a list of my works</t>
+  </si>
+  <si>
+    <t>I can come back anytime and edit it</t>
+  </si>
+  <si>
+    <t>Maintenance page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know if im doing something wrong or the servers are down </t>
+  </si>
+  <si>
+    <t>Search not found page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I know that there is no result for my search </t>
+  </si>
+  <si>
+    <t>Share my stories list</t>
+  </si>
+  <si>
+    <t>Everyone that has the same mindset can see it or read it with me</t>
+  </si>
+  <si>
+    <t>20/04/2024-20/5/2024</t>
+  </si>
+  <si>
+    <t>Edit my stories after publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I want to be able to edit my story after I publish it </t>
+  </si>
+  <si>
     <t>Write collaboratively</t>
   </si>
   <si>
     <t>I can write a story with my friends or users from the community.</t>
   </si>
   <si>
-    <t>Edit my user settings</t>
-  </si>
-  <si>
-    <t>I can change my profile from public to private and via versa, edit my personal information and my profile information.</t>
-  </si>
-  <si>
-    <t>Search for a story</t>
-  </si>
-  <si>
-    <t>I can get the stories that I'm interested in and I want to read.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User </t>
-  </si>
-  <si>
-    <t>Story read page</t>
-  </si>
-  <si>
-    <t>I can read the stories and interact with it(rate it, leave a comment, or share it)</t>
-  </si>
-  <si>
-    <t>404 page</t>
-  </si>
-  <si>
-    <t>If the user messed up the URL will be routed to this page</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>top stories</t>
-  </si>
-  <si>
-    <t>I can see the stories that have the highest rate.</t>
-  </si>
-  <si>
-    <t>sorted stoeis</t>
-  </si>
-  <si>
-    <t>I can explore the stories via the genres, views, ratings, etc.</t>
-  </si>
-  <si>
-    <t>Block/Mute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If any user announced me I can stop them </t>
+    <t xml:space="preserve">Dark theme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can feel more comfy </t>
   </si>
   <si>
     <t>Chat with other users</t>
@@ -183,118 +338,7 @@
     <t>Make new friends and work together on stories</t>
   </si>
   <si>
-    <t>Comment and rate</t>
-  </si>
-  <si>
-    <t>I can give my opinion about the story and have discussions with other users</t>
-  </si>
-  <si>
-    <t>Delete or disable my account</t>
-  </si>
-  <si>
-    <t>I don’t share anymore of my personal information</t>
-  </si>
-  <si>
-    <t>Share my stories list</t>
-  </si>
-  <si>
-    <t>Everyone that has the same mindset can see it or read it with me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If I have any problem I can contact the help center and they will help me </t>
-  </si>
-  <si>
-    <t>Edit my stories after publishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user I want to be able to edit my story after I publish it </t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logout </t>
-  </si>
-  <si>
-    <t>log out from a specific device or all devices</t>
-  </si>
-  <si>
-    <t>Follow other users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can interact with them </t>
-  </si>
-  <si>
-    <t>I want a Persistent Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My account is secured </t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read stories </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can read stories without signing up </t>
-  </si>
-  <si>
-    <t>browse in multi-languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can understand everything </t>
-  </si>
-  <si>
-    <t>I can remember it later</t>
-  </si>
-  <si>
-    <t>I can come back anytime and edit it</t>
-  </si>
-  <si>
-    <t>have a list of my works</t>
-  </si>
-  <si>
-    <t>Have a reading list</t>
-  </si>
-  <si>
-    <t>Maintenance page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I know if im doing something wrong or the servers are down </t>
-  </si>
-  <si>
-    <t>Search not found page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so that I know that there is no result for my search </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark theme </t>
-  </si>
-  <si>
-    <t>help center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can feel more comfy </t>
-  </si>
-  <si>
-    <t>04/03/2024 - 10/03/2024</t>
-  </si>
-  <si>
-    <t>10/03/2024 - 24/03/2024</t>
-  </si>
-  <si>
-    <t>27/03/2024 - 04/04/2024</t>
-  </si>
-  <si>
-    <t>04/04/2024 - 20/04/2024</t>
-  </si>
-  <si>
-    <t>Date DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>20/04/2024-20/5/2024</t>
+    <t>make my avatar</t>
   </si>
   <si>
     <t xml:space="preserve">I can use it  instead of a picture of me </t>
@@ -303,6 +347,9 @@
     <t>p3</t>
   </si>
   <si>
+    <t>Lama/Areen</t>
+  </si>
+  <si>
     <t xml:space="preserve">search for a user profile </t>
   </si>
   <si>
@@ -312,62 +359,59 @@
     <t>p2</t>
   </si>
   <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Amjad</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Abood</t>
-  </si>
-  <si>
-    <t>Mohammmd Ali</t>
-  </si>
-  <si>
-    <t>Amjad/Abood</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>Areen/Lama</t>
-  </si>
-  <si>
-    <t>I can edit my about.</t>
-  </si>
-  <si>
-    <t>Omar/Ahmad</t>
-  </si>
-  <si>
-    <t>Areen</t>
-  </si>
-  <si>
-    <t>Omar did the foundation</t>
-  </si>
-  <si>
-    <t>make my avatar</t>
-  </si>
-  <si>
-    <t>Lama/Areen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invite users to write with me </t>
   </si>
   <si>
     <t>I can send them an invitation so they can join me</t>
+  </si>
+  <si>
+    <t>Redesign profile page</t>
+  </si>
+  <si>
+    <t>View and edit their profile</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>22/03/2025 - 29/03/2025</t>
+  </si>
+  <si>
+    <t>Redesign story details</t>
+  </si>
+  <si>
+    <t>Read story details</t>
+  </si>
+  <si>
+    <t>Redesign carousel on home page</t>
+  </si>
+  <si>
+    <t>View featured stories</t>
+  </si>
+  <si>
+    <t>Write a story with slides and upload photos</t>
+  </si>
+  <si>
+    <t>Enhance story writing experience</t>
+  </si>
+  <si>
+    <t>Accept an invitation</t>
+  </si>
+  <si>
+    <t>Join collaborative stories</t>
+  </si>
+  <si>
+    <t>Add text-to-speech feature</t>
+  </si>
+  <si>
+    <t>Listen to stories instead of reading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +431,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -427,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,9 +507,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -791,52 +845,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A39" sqref="A39:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="97.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="97.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -844,28 +898,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -873,28 +927,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -902,28 +956,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -931,28 +985,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -960,28 +1014,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -989,28 +1043,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1018,28 +1072,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1047,28 +1101,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1076,28 +1130,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1105,28 +1159,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1134,28 +1188,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1163,28 +1217,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1192,28 +1246,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1221,28 +1275,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1250,28 +1304,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1279,28 +1333,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1308,28 +1362,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1337,28 +1391,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F19" s="8">
         <v>3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1366,28 +1420,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1395,28 +1449,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1424,28 +1478,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1453,28 +1507,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1482,28 +1536,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1511,28 +1565,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1540,28 +1594,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1569,28 +1623,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1598,28 +1652,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1627,28 +1681,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1656,28 +1710,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1685,28 +1739,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1714,28 +1768,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F32" s="7">
         <v>5</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1743,28 +1797,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7">
         <v>5</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1772,28 +1826,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1801,28 +1855,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1830,60 +1884,65 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>107</v>
@@ -1892,19 +1951,193 @@
         <v>108</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F38" s="7">
         <v>5</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12">
+        <v>6</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="12">
+        <v>6</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="12">
+        <v>6</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="12">
+        <v>6</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="12">
+        <v>6</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="12">
+        <v>6</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
